--- a/data_koae/excel/KOAE_2009.xlsx
+++ b/data_koae/excel/KOAE_2009.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaProject\data_koae\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruce\Desktop\KilaueaKoaeProject\KilaueaKoaeProject\data\data_koae\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,6 +15,7 @@
     <sheet name="ex" sheetId="1" r:id="rId1"/>
     <sheet name="2009rawLGO+GAMIT" sheetId="2" r:id="rId2"/>
     <sheet name="2009use" sheetId="3" r:id="rId3"/>
+    <sheet name="out" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="120">
   <si>
     <t>id site</t>
   </si>
@@ -1043,8 +1044,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE137"/>
   <sheetViews>
-    <sheetView topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="K137" sqref="K137:M137"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="Q1" activePane="topRight" state="frozen"/>
+      <selection activeCell="A73" sqref="A73"/>
+      <selection pane="topRight" activeCell="Z81" sqref="Z81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -10660,8 +10663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:J66"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -11430,38 +11433,38 @@
       <c r="A21">
         <v>21</v>
       </c>
-      <c r="B21">
-        <v>2009</v>
-      </c>
-      <c r="C21">
-        <v>8</v>
-      </c>
-      <c r="D21">
-        <v>5</v>
-      </c>
-      <c r="E21">
-        <v>-5469040.1695196712</v>
-      </c>
-      <c r="F21">
-        <v>-2517956.9304636153</v>
-      </c>
-      <c r="G21">
-        <v>2100830.6741463668</v>
-      </c>
-      <c r="H21">
-        <v>19.355240353423302</v>
-      </c>
-      <c r="I21">
-        <v>-155.278563238922</v>
-      </c>
-      <c r="J21">
-        <v>1027.27756042499</v>
-      </c>
-      <c r="K21">
-        <v>260645.39983440199</v>
-      </c>
-      <c r="L21">
-        <v>2141712.7300164499</v>
+      <c r="B21" t="s">
+        <v>118</v>
+      </c>
+      <c r="C21" t="s">
+        <v>118</v>
+      </c>
+      <c r="D21" t="s">
+        <v>118</v>
+      </c>
+      <c r="E21" t="s">
+        <v>118</v>
+      </c>
+      <c r="F21" t="s">
+        <v>118</v>
+      </c>
+      <c r="G21" t="s">
+        <v>118</v>
+      </c>
+      <c r="H21" t="s">
+        <v>119</v>
+      </c>
+      <c r="I21" t="s">
+        <v>119</v>
+      </c>
+      <c r="J21" t="s">
+        <v>119</v>
+      </c>
+      <c r="K21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L21" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.35">
@@ -13172,6 +13175,59 @@
       </c>
       <c r="L66" t="s">
         <v>119</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:L1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1">
+        <v>21</v>
+      </c>
+      <c r="B1">
+        <v>2009</v>
+      </c>
+      <c r="C1">
+        <v>8</v>
+      </c>
+      <c r="D1">
+        <v>5</v>
+      </c>
+      <c r="E1">
+        <v>-5469040.1695196712</v>
+      </c>
+      <c r="F1">
+        <v>-2517956.9304636153</v>
+      </c>
+      <c r="G1">
+        <v>2100830.6741463668</v>
+      </c>
+      <c r="H1">
+        <v>19.355240353423302</v>
+      </c>
+      <c r="I1">
+        <v>-155.278563238922</v>
+      </c>
+      <c r="J1">
+        <v>1027.27756042499</v>
+      </c>
+      <c r="K1">
+        <v>260645.39983440199</v>
+      </c>
+      <c r="L1">
+        <v>2141712.7300164499</v>
       </c>
     </row>
   </sheetData>
